--- a/AE18RS_0430/AE18RS_gyak4_feladat3.xlsx
+++ b/AE18RS_0430/AE18RS_gyak4_feladat3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Saját meghajtó\2021\MSc\I. felév\Operacios rendszerek\gyak4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2050735-8E03-4CA3-9EC5-094C148F5107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D733ED61-40F0-4F3E-9450-AC66AFCBE35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6E37367-8511-41BB-85D0-9091A5CB396A}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>LRU</t>
   </si>
   <si>
-    <t>4+8</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>3+13</t>
   </si>
   <si>
-    <t>3+10</t>
-  </si>
-  <si>
     <t>Laphibák</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>OS - 4.konz. gyak,  3 feladat, Lapcsere stratégiák</t>
+  </si>
+  <si>
+    <t>4+6</t>
+  </si>
+  <si>
+    <t>3+12</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,31 +512,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -568,31 +547,61 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C2F0C7-4A6C-4163-BD03-E7E7AA7DF4B5}">
-  <dimension ref="A1:BV41"/>
+  <dimension ref="A1:BV48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,16 +933,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="A1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -944,60 +953,60 @@
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="AC4" s="71"/>
-      <c r="AJ4" s="57" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="AC4" s="64"/>
+      <c r="AJ4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="56" t="s">
+      <c r="AK4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="15">
         <v>7</v>
       </c>
@@ -1058,7 +1067,7 @@
       <c r="U5" s="32">
         <v>2</v>
       </c>
-      <c r="AJ5" s="58"/>
+      <c r="AJ5" s="88"/>
       <c r="AK5" s="15">
         <v>7</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
@@ -1655,59 +1664,59 @@
       </c>
     </row>
     <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="AJ15" s="57" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="AJ15" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AK15" s="56" t="s">
+      <c r="AK15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="86"/>
+      <c r="AO15" s="86"/>
+      <c r="AP15" s="86"/>
+      <c r="AQ15" s="86"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="86"/>
+      <c r="AT15" s="86"/>
+      <c r="AU15" s="86"/>
+      <c r="AV15" s="86"/>
+      <c r="AW15" s="86"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="86"/>
+      <c r="AZ15" s="86"/>
+      <c r="BA15" s="86"/>
+      <c r="BB15" s="86"/>
+      <c r="BC15" s="86"/>
+      <c r="BD15" s="86"/>
     </row>
     <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="87"/>
       <c r="B16" s="15">
         <v>7</v>
       </c>
@@ -1768,7 +1777,7 @@
       <c r="U16" s="17">
         <v>2</v>
       </c>
-      <c r="AJ16" s="57"/>
+      <c r="AJ16" s="87"/>
       <c r="AK16" s="15">
         <v>7</v>
       </c>
@@ -1871,12 +1880,8 @@
       <c r="R17" s="20">
         <v>2</v>
       </c>
-      <c r="S17" s="20">
-        <v>2</v>
-      </c>
-      <c r="T17" s="20">
-        <v>2</v>
-      </c>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="22"/>
       <c r="AJ17" s="6" t="s">
         <v>2</v>
@@ -1903,29 +1908,33 @@
       <c r="AR17" s="20">
         <v>3</v>
       </c>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
+      <c r="AS17" s="20">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="21">
+        <v>7</v>
+      </c>
       <c r="AU17" s="20"/>
-      <c r="AV17" s="21">
-        <v>5</v>
-      </c>
-      <c r="AW17" s="20">
-        <v>5</v>
+      <c r="AV17" s="20">
+        <v>7</v>
+      </c>
+      <c r="AW17" s="21">
+        <v>1</v>
       </c>
       <c r="AX17" s="20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="20"/>
-      <c r="AZ17" s="20">
-        <v>5</v>
+      <c r="AZ17" s="21">
+        <v>6</v>
       </c>
       <c r="BA17" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" s="20"/>
       <c r="BC17" s="20"/>
       <c r="BD17" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.25">
@@ -1964,17 +1973,13 @@
       </c>
       <c r="P18" s="25"/>
       <c r="Q18" s="25"/>
-      <c r="R18" s="26">
-        <v>7</v>
-      </c>
-      <c r="S18" s="24">
-        <v>7</v>
-      </c>
-      <c r="T18" s="24">
-        <v>7</v>
-      </c>
+      <c r="R18" s="24">
+        <v>6</v>
+      </c>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
       <c r="U18" s="27"/>
-      <c r="AJ18" s="65" t="s">
+      <c r="AJ18" s="58" t="s">
         <v>3</v>
       </c>
       <c r="AK18" s="18"/>
@@ -1995,31 +2000,35 @@
         <v>6</v>
       </c>
       <c r="AR18" s="26">
-        <v>6</v>
-      </c>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
+        <v>2</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>2</v>
+      </c>
       <c r="AU18" s="25"/>
-      <c r="AV18" s="25">
-        <v>6</v>
+      <c r="AV18" s="28">
+        <v>5</v>
       </c>
       <c r="AW18" s="25">
-        <v>6</v>
-      </c>
-      <c r="AX18" s="28">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AX18" s="25">
+        <v>5</v>
       </c>
       <c r="AY18" s="25"/>
       <c r="AZ18" s="25">
-        <v>2</v>
-      </c>
-      <c r="BA18" s="26">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="BA18" s="24">
+        <v>5</v>
       </c>
       <c r="BB18" s="24"/>
       <c r="BC18" s="24"/>
-      <c r="BD18" s="64">
-        <v>2</v>
+      <c r="BD18" s="27">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.25">
@@ -2059,12 +2068,8 @@
       <c r="R19" s="24">
         <v>5</v>
       </c>
-      <c r="S19" s="26">
-        <v>6</v>
-      </c>
-      <c r="T19" s="24">
-        <v>6</v>
-      </c>
+      <c r="S19" s="26"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="27"/>
       <c r="AJ19" s="7" t="s">
         <v>4</v>
@@ -2077,39 +2082,43 @@
       <c r="AN19" s="11">
         <v>5</v>
       </c>
-      <c r="AO19" s="11"/>
+      <c r="AO19" s="29"/>
       <c r="AP19" s="29">
         <v>7</v>
       </c>
       <c r="AQ19" s="30">
         <v>7</v>
       </c>
-      <c r="AR19" s="62">
-        <v>7</v>
-      </c>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
+      <c r="AR19" s="56">
+        <v>7</v>
+      </c>
+      <c r="AS19" s="29">
+        <v>6</v>
+      </c>
+      <c r="AT19" s="30">
+        <v>6</v>
+      </c>
       <c r="AU19" s="30"/>
-      <c r="AV19" s="62">
-        <v>7</v>
-      </c>
-      <c r="AW19" s="63">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="62">
-        <v>1</v>
+      <c r="AV19" s="56">
+        <v>6</v>
+      </c>
+      <c r="AW19" s="56">
+        <v>6</v>
+      </c>
+      <c r="AX19" s="57">
+        <v>2</v>
       </c>
       <c r="AY19" s="30"/>
-      <c r="AZ19" s="29">
-        <v>6</v>
-      </c>
-      <c r="BA19" s="62">
-        <v>6</v>
-      </c>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="62"/>
-      <c r="BD19" s="31">
-        <v>6</v>
+      <c r="AZ19" s="30">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="57">
+        <v>7</v>
+      </c>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="90">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.25">
@@ -2144,21 +2153,17 @@
       </c>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
-      <c r="R20" s="30">
-        <v>1</v>
-      </c>
-      <c r="S20" s="30">
-        <v>1</v>
-      </c>
-      <c r="T20" s="29">
-        <v>5</v>
-      </c>
+      <c r="R20" s="29">
+        <v>7</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="29"/>
       <c r="U20" s="31"/>
       <c r="AJ20" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -2185,7 +2190,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2272,154 +2277,154 @@
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="85"/>
+      <c r="AJ24" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="89"/>
+      <c r="AN24" s="89"/>
+      <c r="AO24" s="89"/>
+      <c r="AP24" s="89"/>
+      <c r="AQ24" s="89"/>
+      <c r="AR24" s="89"/>
+      <c r="AS24" s="89"/>
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="89"/>
+      <c r="AV24" s="89"/>
+      <c r="AW24" s="89"/>
+      <c r="AX24" s="89"/>
+      <c r="AY24" s="89"/>
+      <c r="AZ24" s="89"/>
+      <c r="BA24" s="89"/>
+      <c r="BB24" s="89"/>
+      <c r="BC24" s="89"/>
+      <c r="BD24" s="89"/>
+      <c r="BE24" s="89"/>
+      <c r="BF24" s="89"/>
+      <c r="BG24" s="89"/>
+      <c r="BH24" s="89"/>
+      <c r="BI24" s="89"/>
+      <c r="BJ24" s="89"/>
+      <c r="BK24" s="89"/>
+      <c r="BL24" s="89"/>
+      <c r="BM24" s="89"/>
+      <c r="BN24" s="89"/>
+      <c r="BO24" s="89"/>
+      <c r="BP24" s="89"/>
+      <c r="BQ24" s="89"/>
+      <c r="BR24" s="89"/>
+      <c r="BS24" s="89"/>
+      <c r="BT24" s="89"/>
+      <c r="BU24" s="89"/>
+      <c r="BV24" s="85"/>
+    </row>
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A25" s="88"/>
+      <c r="B25" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AJ23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="61"/>
-      <c r="AJ24" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
-      <c r="AO24" s="60"/>
-      <c r="AP24" s="60"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="60"/>
-      <c r="AS24" s="60"/>
-      <c r="AT24" s="60"/>
-      <c r="AU24" s="60"/>
-      <c r="AV24" s="60"/>
-      <c r="AW24" s="60"/>
-      <c r="AX24" s="60"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="60"/>
-      <c r="BB24" s="60"/>
-      <c r="BC24" s="60"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="60"/>
-      <c r="BG24" s="60"/>
-      <c r="BH24" s="60"/>
-      <c r="BI24" s="60"/>
-      <c r="BJ24" s="60"/>
-      <c r="BK24" s="60"/>
-      <c r="BL24" s="60"/>
-      <c r="BM24" s="60"/>
-      <c r="BN24" s="60"/>
-      <c r="BO24" s="60"/>
-      <c r="BP24" s="60"/>
-      <c r="BQ24" s="60"/>
-      <c r="BR24" s="60"/>
-      <c r="BS24" s="60"/>
-      <c r="BT24" s="60"/>
-      <c r="BU24" s="60"/>
-      <c r="BV24" s="61"/>
-    </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="40" t="s">
+      <c r="C25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="F25" s="14">
+        <v>6</v>
+      </c>
+      <c r="G25" s="14">
+        <v>7</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="F25" s="14">
-        <v>6</v>
-      </c>
-      <c r="G25" s="14">
-        <v>7</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="14">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X25" s="14">
         <v>5</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
@@ -2429,23 +2434,23 @@
         <v>6</v>
       </c>
       <c r="AF25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG25" s="17">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN25" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="AG25" s="17">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="58"/>
-      <c r="AK25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL25" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM25" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN25" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="AO25" s="14"/>
       <c r="AP25" s="14"/>
@@ -2454,22 +2459,22 @@
         <v>6</v>
       </c>
       <c r="AS25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU25" s="14"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="14"/>
       <c r="AX25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
@@ -2478,37 +2483,37 @@
         <v>6</v>
       </c>
       <c r="BE25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF25" s="14"/>
       <c r="BG25" s="14"/>
       <c r="BH25" s="14"/>
       <c r="BI25" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BJ25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BK25" s="14">
         <v>5</v>
       </c>
       <c r="BL25" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BM25" s="14"/>
       <c r="BN25" s="14"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BQ25" s="14">
         <v>6</v>
       </c>
       <c r="BR25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BS25" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BT25" s="14"/>
       <c r="BU25" s="14"/>
@@ -2621,61 +2626,61 @@
       <c r="AN26" s="44">
         <v>7</v>
       </c>
-      <c r="AO26" s="67">
-        <v>7</v>
-      </c>
-      <c r="AP26" s="67">
+      <c r="AO26" s="60">
+        <v>7</v>
+      </c>
+      <c r="AP26" s="60">
         <v>7</v>
       </c>
       <c r="AQ26" s="44">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AR26" s="66">
+      <c r="AR26" s="59">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AS26" s="66">
+      <c r="AS26" s="59">
         <v>4.0999999999999996</v>
       </c>
       <c r="AT26" s="44">
         <v>4</v>
       </c>
-      <c r="AU26" s="66">
+      <c r="AU26" s="59">
         <v>4</v>
       </c>
-      <c r="AV26" s="66">
+      <c r="AV26" s="59">
         <v>4</v>
       </c>
       <c r="AW26" s="44">
         <v>3.1</v>
       </c>
-      <c r="AX26" s="66">
+      <c r="AX26" s="59">
         <v>3.1</v>
       </c>
-      <c r="AY26" s="66">
+      <c r="AY26" s="59">
         <v>3.1</v>
       </c>
       <c r="AZ26" s="44">
         <v>3</v>
       </c>
-      <c r="BA26" s="66">
+      <c r="BA26" s="59">
         <v>3</v>
       </c>
-      <c r="BB26" s="66">
+      <c r="BB26" s="59">
         <v>3</v>
       </c>
       <c r="BC26" s="44">
         <v>7.1</v>
       </c>
-      <c r="BD26" s="66">
+      <c r="BD26" s="59">
         <v>7.1</v>
       </c>
       <c r="BE26" s="44">
         <v>7</v>
       </c>
-      <c r="BF26" s="66">
-        <v>7</v>
-      </c>
-      <c r="BG26" s="66">
+      <c r="BF26" s="59">
+        <v>7</v>
+      </c>
+      <c r="BG26" s="59">
         <v>7</v>
       </c>
       <c r="BH26" s="44">
@@ -2716,7 +2721,7 @@
       <c r="BU26" s="48">
         <v>6</v>
       </c>
-      <c r="BV26" s="77">
+      <c r="BV26" s="70">
         <v>2.1</v>
       </c>
     </row>
@@ -2820,13 +2825,13 @@
       <c r="AM27" s="19">
         <v>6.1</v>
       </c>
-      <c r="AN27" s="68">
+      <c r="AN27" s="61">
         <v>6.1</v>
       </c>
       <c r="AO27" s="34">
         <v>6</v>
       </c>
-      <c r="AP27" s="68">
+      <c r="AP27" s="61">
         <v>6</v>
       </c>
       <c r="AQ27" s="41">
@@ -2902,23 +2907,23 @@
       <c r="BO27" s="41">
         <v>1</v>
       </c>
-      <c r="BP27" s="70">
+      <c r="BP27" s="63">
         <v>7.1</v>
       </c>
       <c r="BQ27" s="19"/>
       <c r="BR27" s="19">
         <v>7.1</v>
       </c>
-      <c r="BS27" s="68">
+      <c r="BS27" s="61">
         <v>7.1</v>
       </c>
       <c r="BT27" s="34">
         <v>7</v>
       </c>
-      <c r="BU27" s="68">
-        <v>7</v>
-      </c>
-      <c r="BV27" s="75">
+      <c r="BU27" s="61">
+        <v>7</v>
+      </c>
+      <c r="BV27" s="68">
         <v>7</v>
       </c>
     </row>
@@ -3100,23 +3105,23 @@
       <c r="BO28" s="41">
         <v>2</v>
       </c>
-      <c r="BP28" s="69">
+      <c r="BP28" s="62">
         <v>2</v>
       </c>
       <c r="BQ28" s="19"/>
-      <c r="BR28" s="70">
+      <c r="BR28" s="63">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BS28" s="68">
+      <c r="BS28" s="61">
         <v>5.0999999999999996</v>
       </c>
-      <c r="BT28" s="68">
+      <c r="BT28" s="61">
         <v>5.0999999999999996</v>
       </c>
       <c r="BU28" s="34">
         <v>5</v>
       </c>
-      <c r="BV28" s="75">
+      <c r="BV28" s="68">
         <v>5</v>
       </c>
     </row>
@@ -3490,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.25">
@@ -3501,85 +3506,328 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="85">
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="73">
         <v>4</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="66">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="85"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D36" s="73"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="85"/>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D37" s="78" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
-      <c r="G37" s="86">
+      <c r="G37" s="74">
         <v>14</v>
       </c>
-      <c r="H37" s="74">
+      <c r="H37" s="67">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D38" s="80" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="81"/>
       <c r="F38" s="81"/>
-      <c r="G38" s="87">
+      <c r="G38" s="75">
         <v>12</v>
       </c>
-      <c r="H38" s="82">
+      <c r="H38" s="72">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="88">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="D39" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="76">
         <v>14</v>
       </c>
-      <c r="H39" s="76">
+      <c r="H39" s="69">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="91"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="92"/>
+      <c r="AO42" s="92"/>
+      <c r="AP42" s="92"/>
+      <c r="AQ42" s="92"/>
+      <c r="AR42" s="92"/>
+      <c r="AS42" s="92"/>
+      <c r="AT42" s="92"/>
+      <c r="AU42" s="92"/>
+      <c r="AV42" s="92"/>
+      <c r="AW42" s="92"/>
+      <c r="AX42" s="92"/>
+      <c r="AY42" s="92"/>
+      <c r="AZ42" s="92"/>
+      <c r="BA42" s="92"/>
+      <c r="BB42" s="92"/>
+      <c r="BC42" s="92"/>
+      <c r="BD42" s="92"/>
+      <c r="BE42" s="92"/>
+      <c r="BF42" s="92"/>
+      <c r="BG42" s="1"/>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="91"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+      <c r="BB43" s="19"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="19"/>
+      <c r="BE43" s="19"/>
+      <c r="BF43" s="19"/>
+      <c r="BG43" s="1"/>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="71"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="25"/>
+      <c r="AX44" s="25"/>
+      <c r="AY44" s="28"/>
+      <c r="AZ44" s="25"/>
+      <c r="BA44" s="25"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="25"/>
+      <c r="BE44" s="25"/>
+      <c r="BF44" s="25"/>
+      <c r="BG44" s="1"/>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="71"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="24"/>
+      <c r="AT45" s="26"/>
+      <c r="AU45" s="25"/>
+      <c r="AV45" s="25"/>
+      <c r="AW45" s="25"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="25"/>
+      <c r="AZ45" s="25"/>
+      <c r="BA45" s="25"/>
+      <c r="BB45" s="25"/>
+      <c r="BC45" s="24"/>
+      <c r="BD45" s="24"/>
+      <c r="BE45" s="24"/>
+      <c r="BF45" s="25"/>
+      <c r="BG45" s="1"/>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="25"/>
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="25"/>
+      <c r="AW46" s="25"/>
+      <c r="AX46" s="24"/>
+      <c r="AY46" s="24"/>
+      <c r="AZ46" s="26"/>
+      <c r="BA46" s="25"/>
+      <c r="BB46" s="25"/>
+      <c r="BC46" s="26"/>
+      <c r="BD46" s="24"/>
+      <c r="BE46" s="24"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="1"/>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G36:H36"/>
+  <mergeCells count="20">
+    <mergeCell ref="AL42:AL43"/>
+    <mergeCell ref="AM42:BF42"/>
     <mergeCell ref="AK4:BD4"/>
     <mergeCell ref="AJ15:AJ16"/>
     <mergeCell ref="AK15:BD15"/>
@@ -3592,6 +3840,11 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:U15"/>
     <mergeCell ref="AK24:BV24"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="D35:F35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
